--- a/data/pca/factorExposure/factorExposure_2012-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-06.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01721545650295183</v>
+        <v>0.02164206295492743</v>
       </c>
       <c r="C2">
-        <v>-0.03260272934725315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02578452246185085</v>
+      </c>
+      <c r="D2">
+        <v>0.004127469328991861</v>
+      </c>
+      <c r="E2">
+        <v>-0.02868602418699272</v>
+      </c>
+      <c r="F2">
+        <v>0.009482773041296005</v>
+      </c>
+      <c r="G2">
+        <v>-0.006282871305721117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06976396219701506</v>
+        <v>0.07940499208021842</v>
       </c>
       <c r="C4">
-        <v>-0.0633355356642773</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04204089793772001</v>
+      </c>
+      <c r="D4">
+        <v>-0.07067396191801097</v>
+      </c>
+      <c r="E4">
+        <v>0.0002115176264028483</v>
+      </c>
+      <c r="F4">
+        <v>0.03485921109813526</v>
+      </c>
+      <c r="G4">
+        <v>0.005582699355510996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09921893754457481</v>
+        <v>0.1155475050816196</v>
       </c>
       <c r="C6">
-        <v>-0.0677283873099086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04137284361208</v>
+      </c>
+      <c r="D6">
+        <v>-0.01154435489834647</v>
+      </c>
+      <c r="E6">
+        <v>0.008539062807974052</v>
+      </c>
+      <c r="F6">
+        <v>0.04779702431436509</v>
+      </c>
+      <c r="G6">
+        <v>-0.01142186369965286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04699572282853256</v>
+        <v>0.05779447985998804</v>
       </c>
       <c r="C7">
-        <v>-0.03521346292237073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02476065736130533</v>
+      </c>
+      <c r="D7">
+        <v>-0.03580495666745883</v>
+      </c>
+      <c r="E7">
+        <v>-0.01995208688280666</v>
+      </c>
+      <c r="F7">
+        <v>0.03963290508417316</v>
+      </c>
+      <c r="G7">
+        <v>0.04531012291252407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03523235437536934</v>
+        <v>0.0374705239459985</v>
       </c>
       <c r="C8">
-        <v>-0.02575263828837681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01381487553278063</v>
+      </c>
+      <c r="D8">
+        <v>-0.03864259367419493</v>
+      </c>
+      <c r="E8">
+        <v>-0.002828313754453981</v>
+      </c>
+      <c r="F8">
+        <v>0.05359497805846576</v>
+      </c>
+      <c r="G8">
+        <v>-0.02722915085555685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06358618124719859</v>
+        <v>0.07325151416804766</v>
       </c>
       <c r="C9">
-        <v>-0.04869085063710097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02965554042354886</v>
+      </c>
+      <c r="D9">
+        <v>-0.06714809891920387</v>
+      </c>
+      <c r="E9">
+        <v>-0.01586718790307359</v>
+      </c>
+      <c r="F9">
+        <v>0.04222368412104474</v>
+      </c>
+      <c r="G9">
+        <v>0.007529012116362199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02869971853666414</v>
+        <v>0.04036313007085943</v>
       </c>
       <c r="C10">
-        <v>-0.03382527058573458</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03563572741391811</v>
+      </c>
+      <c r="D10">
+        <v>0.17894834375525</v>
+      </c>
+      <c r="E10">
+        <v>-0.04496033337362216</v>
+      </c>
+      <c r="F10">
+        <v>0.03894929548980992</v>
+      </c>
+      <c r="G10">
+        <v>0.04261685791806685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06721556362756108</v>
+        <v>0.0757268742404846</v>
       </c>
       <c r="C11">
-        <v>-0.05112232010348694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02961397573198564</v>
+      </c>
+      <c r="D11">
+        <v>-0.06734363073399711</v>
+      </c>
+      <c r="E11">
+        <v>0.0115548776107138</v>
+      </c>
+      <c r="F11">
+        <v>0.03443647107838353</v>
+      </c>
+      <c r="G11">
+        <v>0.02108663770623365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05232180980266646</v>
+        <v>0.06378821322954917</v>
       </c>
       <c r="C12">
-        <v>-0.05181163712274138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03564782070028267</v>
+      </c>
+      <c r="D12">
+        <v>-0.05221480688583936</v>
+      </c>
+      <c r="E12">
+        <v>-0.007367214267734346</v>
+      </c>
+      <c r="F12">
+        <v>0.03156505604550693</v>
+      </c>
+      <c r="G12">
+        <v>0.01571266627870395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.05886341779935938</v>
+        <v>0.06520987101363518</v>
       </c>
       <c r="C13">
-        <v>-0.0524172733443625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03151631994596027</v>
+      </c>
+      <c r="D13">
+        <v>-0.04811828105514537</v>
+      </c>
+      <c r="E13">
+        <v>-0.005955809360419528</v>
+      </c>
+      <c r="F13">
+        <v>0.01628905328431181</v>
+      </c>
+      <c r="G13">
+        <v>0.005147296040815198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03107567777285879</v>
+        <v>0.0391079969894404</v>
       </c>
       <c r="C14">
-        <v>-0.02951104835620549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02238662550075723</v>
+      </c>
+      <c r="D14">
+        <v>-0.007736127442327191</v>
+      </c>
+      <c r="E14">
+        <v>-0.01523148621094709</v>
+      </c>
+      <c r="F14">
+        <v>0.01818366748374713</v>
+      </c>
+      <c r="G14">
+        <v>0.0009483232537414333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03982261682436101</v>
+        <v>0.04155007375748854</v>
       </c>
       <c r="C15">
-        <v>-0.01359909366718779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002760390457924935</v>
+      </c>
+      <c r="D15">
+        <v>-0.01464377059765223</v>
+      </c>
+      <c r="E15">
+        <v>-0.03926544667065304</v>
+      </c>
+      <c r="F15">
+        <v>0.003403913763981677</v>
+      </c>
+      <c r="G15">
+        <v>-0.01938058187689965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05673877728271418</v>
+        <v>0.06419519590370079</v>
       </c>
       <c r="C16">
-        <v>-0.04561741539455629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02819274981011623</v>
+      </c>
+      <c r="D16">
+        <v>-0.06076499171710933</v>
+      </c>
+      <c r="E16">
+        <v>0.00122883051352955</v>
+      </c>
+      <c r="F16">
+        <v>0.03120898607909504</v>
+      </c>
+      <c r="G16">
+        <v>0.008142437388732639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06193898064947633</v>
+        <v>0.06212733579863352</v>
       </c>
       <c r="C20">
-        <v>-0.03746880152849087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01631276253130167</v>
+      </c>
+      <c r="D20">
+        <v>-0.04970454587360536</v>
+      </c>
+      <c r="E20">
+        <v>-0.01428147458493551</v>
+      </c>
+      <c r="F20">
+        <v>0.02754044482793903</v>
+      </c>
+      <c r="G20">
+        <v>0.01152381473136899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02550002261435294</v>
+        <v>0.02476917312092025</v>
       </c>
       <c r="C21">
-        <v>0.0008951938593776147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008903344538615821</v>
+      </c>
+      <c r="D21">
+        <v>-0.03186013809024014</v>
+      </c>
+      <c r="E21">
+        <v>-0.08516051822089668</v>
+      </c>
+      <c r="F21">
+        <v>0.0039589066825495</v>
+      </c>
+      <c r="G21">
+        <v>-0.01459605555535455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06896454125326221</v>
+        <v>0.06460433709867001</v>
       </c>
       <c r="C22">
-        <v>-0.0715199322380346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04143897302920853</v>
+      </c>
+      <c r="D22">
+        <v>-0.1050092084126943</v>
+      </c>
+      <c r="E22">
+        <v>-0.6170881541072795</v>
+      </c>
+      <c r="F22">
+        <v>-0.09856340327338486</v>
+      </c>
+      <c r="G22">
+        <v>0.02938292902501559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.07017860779466663</v>
+        <v>0.06511021026988383</v>
       </c>
       <c r="C23">
-        <v>-0.07122946665534641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04059742760244534</v>
+      </c>
+      <c r="D23">
+        <v>-0.1058830166192657</v>
+      </c>
+      <c r="E23">
+        <v>-0.616211325714314</v>
+      </c>
+      <c r="F23">
+        <v>-0.0978587394837202</v>
+      </c>
+      <c r="G23">
+        <v>0.02767283394911544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06527690849357988</v>
+        <v>0.07560009997823199</v>
       </c>
       <c r="C24">
-        <v>-0.05369226294515576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.0331989686142159</v>
+      </c>
+      <c r="D24">
+        <v>-0.06439777341361554</v>
+      </c>
+      <c r="E24">
+        <v>-0.006258027689114826</v>
+      </c>
+      <c r="F24">
+        <v>0.04349690926303749</v>
+      </c>
+      <c r="G24">
+        <v>0.007738664864690659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06499851202684179</v>
+        <v>0.07352310629245414</v>
       </c>
       <c r="C25">
-        <v>-0.05906512017775698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03761201980979539</v>
+      </c>
+      <c r="D25">
+        <v>-0.06202873775086127</v>
+      </c>
+      <c r="E25">
+        <v>-0.009717174088294934</v>
+      </c>
+      <c r="F25">
+        <v>0.03966130356798168</v>
+      </c>
+      <c r="G25">
+        <v>-0.00285941185530109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03827533384855869</v>
+        <v>0.04180956429438756</v>
       </c>
       <c r="C26">
-        <v>-0.0145889396287471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005477151450880534</v>
+      </c>
+      <c r="D26">
+        <v>-0.02317505861987332</v>
+      </c>
+      <c r="E26">
+        <v>-0.03333086958754303</v>
+      </c>
+      <c r="F26">
+        <v>0.02464212895202685</v>
+      </c>
+      <c r="G26">
+        <v>0.0131993310247422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05152583242180042</v>
+        <v>0.07339087310317439</v>
       </c>
       <c r="C28">
-        <v>-0.06932533219046996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.06975527053752721</v>
+      </c>
+      <c r="D28">
+        <v>0.3238670798496391</v>
+      </c>
+      <c r="E28">
+        <v>-0.03746532001224593</v>
+      </c>
+      <c r="F28">
+        <v>0.05272212329684627</v>
+      </c>
+      <c r="G28">
+        <v>-0.02601431857364002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03649159746566168</v>
+        <v>0.04462541866134533</v>
       </c>
       <c r="C29">
-        <v>-0.03106583298771052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02350622678916002</v>
+      </c>
+      <c r="D29">
+        <v>-0.01089321486664234</v>
+      </c>
+      <c r="E29">
+        <v>-0.03860028422061505</v>
+      </c>
+      <c r="F29">
+        <v>0.01710127207968049</v>
+      </c>
+      <c r="G29">
+        <v>0.01630828917525279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1152377110187796</v>
+        <v>0.1323943800230639</v>
       </c>
       <c r="C30">
-        <v>-0.1001272715779934</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06398953953533071</v>
+      </c>
+      <c r="D30">
+        <v>-0.09288155131345703</v>
+      </c>
+      <c r="E30">
+        <v>-0.04185886521111351</v>
+      </c>
+      <c r="F30">
+        <v>0.02221324348510562</v>
+      </c>
+      <c r="G30">
+        <v>-0.02034407586677891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03779420770906677</v>
+        <v>0.0439389887766586</v>
       </c>
       <c r="C31">
-        <v>-0.02370534587605297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01384884777413202</v>
+      </c>
+      <c r="D31">
+        <v>-0.02744905738399198</v>
+      </c>
+      <c r="E31">
+        <v>-0.02086405521675368</v>
+      </c>
+      <c r="F31">
+        <v>0.01461876735605083</v>
+      </c>
+      <c r="G31">
+        <v>0.02437049600626832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03297298357157449</v>
+        <v>0.03276704694067089</v>
       </c>
       <c r="C32">
-        <v>-0.02216371287741679</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01234101417278811</v>
+      </c>
+      <c r="D32">
+        <v>-0.01256959588437968</v>
+      </c>
+      <c r="E32">
+        <v>-0.06598108994438787</v>
+      </c>
+      <c r="F32">
+        <v>0.0007399288818950873</v>
+      </c>
+      <c r="G32">
+        <v>-0.02711800008424857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07460034448665046</v>
+        <v>0.08830776328205817</v>
       </c>
       <c r="C33">
-        <v>-0.05394077189661785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03315980177842629</v>
+      </c>
+      <c r="D33">
+        <v>-0.06068334585864385</v>
+      </c>
+      <c r="E33">
+        <v>-0.01184853260715373</v>
+      </c>
+      <c r="F33">
+        <v>0.009469243069776093</v>
+      </c>
+      <c r="G33">
+        <v>0.01617473337006003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05170194292213932</v>
+        <v>0.05841214578246251</v>
       </c>
       <c r="C34">
-        <v>-0.03446038788544675</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01781889580064816</v>
+      </c>
+      <c r="D34">
+        <v>-0.06042016691576816</v>
+      </c>
+      <c r="E34">
+        <v>4.341669464947025e-05</v>
+      </c>
+      <c r="F34">
+        <v>0.02550393277076264</v>
+      </c>
+      <c r="G34">
+        <v>0.004061400094514341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03570539815857324</v>
+        <v>0.03998307931087176</v>
       </c>
       <c r="C35">
-        <v>-0.01236363036581994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004409076721974061</v>
+      </c>
+      <c r="D35">
+        <v>-0.01292836009589578</v>
+      </c>
+      <c r="E35">
+        <v>-0.02178204090005046</v>
+      </c>
+      <c r="F35">
+        <v>0.00256428966156482</v>
+      </c>
+      <c r="G35">
+        <v>0.01042982386177923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0178409540000058</v>
+        <v>0.02498050275504763</v>
       </c>
       <c r="C36">
-        <v>-0.01678350319908494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01253289180138056</v>
+      </c>
+      <c r="D36">
+        <v>-0.01940523230335182</v>
+      </c>
+      <c r="E36">
+        <v>-0.03552851356093789</v>
+      </c>
+      <c r="F36">
+        <v>0.02136838202240151</v>
+      </c>
+      <c r="G36">
+        <v>0.01763962921414424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03783295497896094</v>
+        <v>0.0407273884319326</v>
       </c>
       <c r="C38">
-        <v>-0.00935658296592474</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001874106633972916</v>
+      </c>
+      <c r="D38">
+        <v>-0.01407743204283554</v>
+      </c>
+      <c r="E38">
+        <v>-0.06008043593032788</v>
+      </c>
+      <c r="F38">
+        <v>-0.01421422292197579</v>
+      </c>
+      <c r="G38">
+        <v>-0.01183227751570581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08837350743227357</v>
+        <v>0.1023077624361941</v>
       </c>
       <c r="C39">
-        <v>-0.08584026949459063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05613457410319535</v>
+      </c>
+      <c r="D39">
+        <v>-0.08431733358803098</v>
+      </c>
+      <c r="E39">
+        <v>0.0123888041933311</v>
+      </c>
+      <c r="F39">
+        <v>0.02064348752995344</v>
+      </c>
+      <c r="G39">
+        <v>-0.01875226784303712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06578954055925484</v>
+        <v>0.07092240798418166</v>
       </c>
       <c r="C40">
-        <v>-0.05527709414217268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03309836979535264</v>
+      </c>
+      <c r="D40">
+        <v>-0.01220326891358465</v>
+      </c>
+      <c r="E40">
+        <v>-0.02884849517822217</v>
+      </c>
+      <c r="F40">
+        <v>-0.04986674896363936</v>
+      </c>
+      <c r="G40">
+        <v>-0.07073170360729635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03923866112766326</v>
+        <v>0.04347754534491783</v>
       </c>
       <c r="C41">
-        <v>-0.01637996671880214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006692928954861638</v>
+      </c>
+      <c r="D41">
+        <v>-0.04084347820573608</v>
+      </c>
+      <c r="E41">
+        <v>-0.007293364008259543</v>
+      </c>
+      <c r="F41">
+        <v>-0.005357424847505094</v>
+      </c>
+      <c r="G41">
+        <v>-0.009940849860962199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04388653846970404</v>
+        <v>0.05286714555521737</v>
       </c>
       <c r="C43">
-        <v>-0.03364546271084157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02070253291889011</v>
+      </c>
+      <c r="D43">
+        <v>-0.02969337622900782</v>
+      </c>
+      <c r="E43">
+        <v>-0.0171336788509872</v>
+      </c>
+      <c r="F43">
+        <v>0.01729888344956926</v>
+      </c>
+      <c r="G43">
+        <v>0.01148397672846083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.09066273976131108</v>
+        <v>0.09278504997838506</v>
       </c>
       <c r="C44">
-        <v>-0.09414156378033689</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06040760553760456</v>
+      </c>
+      <c r="D44">
+        <v>-0.05675309758486302</v>
+      </c>
+      <c r="E44">
+        <v>-0.09438810311510275</v>
+      </c>
+      <c r="F44">
+        <v>0.06463730867524366</v>
+      </c>
+      <c r="G44">
+        <v>-0.02172750072550269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0270726667298955</v>
+        <v>0.02835667402344004</v>
       </c>
       <c r="C46">
-        <v>-0.01871996980995747</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009981439957743541</v>
+      </c>
+      <c r="D46">
+        <v>-0.03348029271801613</v>
+      </c>
+      <c r="E46">
+        <v>-0.01651482723349001</v>
+      </c>
+      <c r="F46">
+        <v>0.01946427813177237</v>
+      </c>
+      <c r="G46">
+        <v>0.0001725021087245901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02769888801622379</v>
+        <v>0.03030412433526487</v>
       </c>
       <c r="C47">
-        <v>-0.02102348708480361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01259389690994865</v>
+      </c>
+      <c r="D47">
+        <v>-0.01661092393269152</v>
+      </c>
+      <c r="E47">
+        <v>-0.04833375907905392</v>
+      </c>
+      <c r="F47">
+        <v>0.01573157989013558</v>
+      </c>
+      <c r="G47">
+        <v>0.03097199133414344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02892453328565672</v>
+        <v>0.03264006177163723</v>
       </c>
       <c r="C48">
-        <v>-0.01949813294527331</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01091077875324188</v>
+      </c>
+      <c r="D48">
+        <v>-0.03252781648109223</v>
+      </c>
+      <c r="E48">
+        <v>-0.041134871612195</v>
+      </c>
+      <c r="F48">
+        <v>0.01847498404603895</v>
+      </c>
+      <c r="G48">
+        <v>-0.001181010056093858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1507048865331501</v>
+        <v>0.1786153342824362</v>
       </c>
       <c r="C49">
-        <v>-0.08887674264150518</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05114970419235351</v>
+      </c>
+      <c r="D49">
+        <v>-0.01255515489114139</v>
+      </c>
+      <c r="E49">
+        <v>0.1327054110499634</v>
+      </c>
+      <c r="F49">
+        <v>0.02019039524563396</v>
+      </c>
+      <c r="G49">
+        <v>0.04762484660941547</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03418455376090608</v>
+        <v>0.0427005783048319</v>
       </c>
       <c r="C50">
-        <v>-0.02810210880829233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02080937218058952</v>
+      </c>
+      <c r="D50">
+        <v>-0.0364444539152727</v>
+      </c>
+      <c r="E50">
+        <v>-0.04436337840097596</v>
+      </c>
+      <c r="F50">
+        <v>0.02804474540799193</v>
+      </c>
+      <c r="G50">
+        <v>0.02270205671592947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02489610248552226</v>
+        <v>0.02756736005202032</v>
       </c>
       <c r="C51">
-        <v>-0.01634414328496715</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.00953328707201102</v>
+      </c>
+      <c r="D51">
+        <v>-0.02527536810445928</v>
+      </c>
+      <c r="E51">
+        <v>-0.01925588673020823</v>
+      </c>
+      <c r="F51">
+        <v>0.01502414590364944</v>
+      </c>
+      <c r="G51">
+        <v>-0.002660502913702379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1387311607442045</v>
+        <v>0.1587487336430304</v>
       </c>
       <c r="C53">
-        <v>-0.09748404146313262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06419764613712892</v>
+      </c>
+      <c r="D53">
+        <v>-0.02140039504230829</v>
+      </c>
+      <c r="E53">
+        <v>0.041910224249349</v>
+      </c>
+      <c r="F53">
+        <v>0.01351245446805542</v>
+      </c>
+      <c r="G53">
+        <v>0.00347859485030153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05078218573379521</v>
+        <v>0.05493238820313248</v>
       </c>
       <c r="C54">
-        <v>-0.02941361173320073</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01385000670840922</v>
+      </c>
+      <c r="D54">
+        <v>-0.03319677358059505</v>
+      </c>
+      <c r="E54">
+        <v>-0.04559349865665489</v>
+      </c>
+      <c r="F54">
+        <v>0.02019960351625538</v>
+      </c>
+      <c r="G54">
+        <v>-0.00143663019591753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09262195974659042</v>
+        <v>0.09995648468661562</v>
       </c>
       <c r="C55">
-        <v>-0.06458922081938361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04051368669956388</v>
+      </c>
+      <c r="D55">
+        <v>-0.03106230623758958</v>
+      </c>
+      <c r="E55">
+        <v>-0.006270729935691039</v>
+      </c>
+      <c r="F55">
+        <v>0.01983319168317824</v>
+      </c>
+      <c r="G55">
+        <v>-0.002037299421543874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1383771045327156</v>
+        <v>0.1585168906792741</v>
       </c>
       <c r="C56">
-        <v>-0.1080532414796436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07213948059593081</v>
+      </c>
+      <c r="D56">
+        <v>-0.01851584901091799</v>
+      </c>
+      <c r="E56">
+        <v>0.04104252692259626</v>
+      </c>
+      <c r="F56">
+        <v>0.0470285771647963</v>
+      </c>
+      <c r="G56">
+        <v>0.01711151784087914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1149057614942951</v>
+        <v>0.09839536653608377</v>
       </c>
       <c r="C58">
-        <v>-0.02824286031085798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01328728288915085</v>
+      </c>
+      <c r="D58">
+        <v>-0.04895891085479898</v>
+      </c>
+      <c r="E58">
+        <v>-0.1870972941053654</v>
+      </c>
+      <c r="F58">
+        <v>0.03012148944500069</v>
+      </c>
+      <c r="G58">
+        <v>0.0218716213374679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1075927344313876</v>
+        <v>0.1476362516444069</v>
       </c>
       <c r="C59">
-        <v>-0.08060283848014958</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07843166287920542</v>
+      </c>
+      <c r="D59">
+        <v>0.3552709397705309</v>
+      </c>
+      <c r="E59">
+        <v>-0.05039671499249001</v>
+      </c>
+      <c r="F59">
+        <v>-0.01647157665311054</v>
+      </c>
+      <c r="G59">
+        <v>0.03570145532089668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1856820775231176</v>
+        <v>0.2190318963910904</v>
       </c>
       <c r="C60">
-        <v>-0.1186653525146412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07592662472724196</v>
+      </c>
+      <c r="D60">
+        <v>-0.01384307562166455</v>
+      </c>
+      <c r="E60">
+        <v>0.07417593002789773</v>
+      </c>
+      <c r="F60">
+        <v>0.03814668386272526</v>
+      </c>
+      <c r="G60">
+        <v>-0.02343712310442538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07559484230698774</v>
+        <v>0.0857735509838547</v>
       </c>
       <c r="C61">
-        <v>-0.06382811157580598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04082803463732333</v>
+      </c>
+      <c r="D61">
+        <v>-0.06415155875060448</v>
+      </c>
+      <c r="E61">
+        <v>0.01620244050149341</v>
+      </c>
+      <c r="F61">
+        <v>0.009949557984224599</v>
+      </c>
+      <c r="G61">
+        <v>0.01694654858421182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.117783535400881</v>
+        <v>0.1390339222358538</v>
       </c>
       <c r="C62">
-        <v>-0.08317438249717939</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05501864849504955</v>
+      </c>
+      <c r="D62">
+        <v>-0.0230844328483689</v>
+      </c>
+      <c r="E62">
+        <v>0.05531272341933761</v>
+      </c>
+      <c r="F62">
+        <v>0.01739068747382132</v>
+      </c>
+      <c r="G62">
+        <v>-0.02829050601209213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.05081216288127167</v>
+        <v>0.05173896401568147</v>
       </c>
       <c r="C63">
-        <v>-0.03161603699151799</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01623848858201133</v>
+      </c>
+      <c r="D63">
+        <v>-0.03214894384444533</v>
+      </c>
+      <c r="E63">
+        <v>-0.0463382723924547</v>
+      </c>
+      <c r="F63">
+        <v>0.01354363353138806</v>
+      </c>
+      <c r="G63">
+        <v>-0.02630020714302536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1080188072219065</v>
+        <v>0.112851012722284</v>
       </c>
       <c r="C64">
-        <v>-0.04456107402426865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01407999823075204</v>
+      </c>
+      <c r="D64">
+        <v>-0.04703493803831522</v>
+      </c>
+      <c r="E64">
+        <v>-0.02493615414661371</v>
+      </c>
+      <c r="F64">
+        <v>0.05941979717522651</v>
+      </c>
+      <c r="G64">
+        <v>-0.02324946767909294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1111516083734504</v>
+        <v>0.1247137356686825</v>
       </c>
       <c r="C65">
-        <v>-0.06692381484831102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03900237729607204</v>
+      </c>
+      <c r="D65">
+        <v>-0.009813527998537654</v>
+      </c>
+      <c r="E65">
+        <v>0.004679793452928391</v>
+      </c>
+      <c r="F65">
+        <v>0.06004967332342799</v>
+      </c>
+      <c r="G65">
+        <v>-0.03268078301588485</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1351170729094159</v>
+        <v>0.1529543383893363</v>
       </c>
       <c r="C66">
-        <v>-0.09454383488151341</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05492189351632478</v>
+      </c>
+      <c r="D66">
+        <v>-0.1176880777526192</v>
+      </c>
+      <c r="E66">
+        <v>0.05639174300725742</v>
+      </c>
+      <c r="F66">
+        <v>0.03866023915083267</v>
+      </c>
+      <c r="G66">
+        <v>-0.01769662716888071</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.07011071356897984</v>
+        <v>0.07593702603959185</v>
       </c>
       <c r="C67">
-        <v>-0.02211911524863828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.006908968916932253</v>
+      </c>
+      <c r="D67">
+        <v>-0.02602573322865857</v>
+      </c>
+      <c r="E67">
+        <v>-0.02512041152503183</v>
+      </c>
+      <c r="F67">
+        <v>0.004852362563234289</v>
+      </c>
+      <c r="G67">
+        <v>0.009726587490013087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05320851738717804</v>
+        <v>0.06759400600951984</v>
       </c>
       <c r="C68">
-        <v>-0.04338907972963211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04371658972261558</v>
+      </c>
+      <c r="D68">
+        <v>0.2680411063259506</v>
+      </c>
+      <c r="E68">
+        <v>-0.05145597273122769</v>
+      </c>
+      <c r="F68">
+        <v>0.01354534412003543</v>
+      </c>
+      <c r="G68">
+        <v>0.008270356969771497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.05074658762386858</v>
+        <v>0.05112997971721217</v>
       </c>
       <c r="C69">
-        <v>-0.02563256375242284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.008574843297961168</v>
+      </c>
+      <c r="D69">
+        <v>-0.03429360066398265</v>
+      </c>
+      <c r="E69">
+        <v>-0.02155121211707984</v>
+      </c>
+      <c r="F69">
+        <v>-0.00236481328951015</v>
+      </c>
+      <c r="G69">
+        <v>0.008218117081353869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.004016409840030692</v>
+        <v>0.01666213703073178</v>
       </c>
       <c r="C70">
-        <v>0.003875438728757547</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0007410597550290032</v>
+      </c>
+      <c r="D70">
+        <v>0.007658207248554001</v>
+      </c>
+      <c r="E70">
+        <v>0.02125492984358904</v>
+      </c>
+      <c r="F70">
+        <v>0.01190220851686212</v>
+      </c>
+      <c r="G70">
+        <v>0.01991569523274093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05649032191210333</v>
+        <v>0.07237886542520598</v>
       </c>
       <c r="C71">
-        <v>-0.04343693758513052</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.0439341863350462</v>
+      </c>
+      <c r="D71">
+        <v>0.3007428469455923</v>
+      </c>
+      <c r="E71">
+        <v>-0.04763182238883672</v>
+      </c>
+      <c r="F71">
+        <v>0.03770583394640328</v>
+      </c>
+      <c r="G71">
+        <v>0.003588534108224026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1322851479226835</v>
+        <v>0.154922229404213</v>
       </c>
       <c r="C72">
-        <v>-0.07484222420114731</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04386835609124207</v>
+      </c>
+      <c r="D72">
+        <v>-0.007539231048517887</v>
+      </c>
+      <c r="E72">
+        <v>0.08328131715781718</v>
+      </c>
+      <c r="F72">
+        <v>-0.1646891280249404</v>
+      </c>
+      <c r="G72">
+        <v>-0.1166452570398106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2467931869544991</v>
+        <v>0.2760927495786993</v>
       </c>
       <c r="C73">
-        <v>-0.1425747957229413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07600973990589768</v>
+      </c>
+      <c r="D73">
+        <v>-0.06876395724822305</v>
+      </c>
+      <c r="E73">
+        <v>0.19269587655599</v>
+      </c>
+      <c r="F73">
+        <v>0.06271384178953031</v>
+      </c>
+      <c r="G73">
+        <v>0.1751095626877179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0738569664036422</v>
+        <v>0.089739300450132</v>
       </c>
       <c r="C74">
-        <v>-0.0859665365141548</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06415840799327642</v>
+      </c>
+      <c r="D74">
+        <v>-0.03424006763463523</v>
+      </c>
+      <c r="E74">
+        <v>0.006096159193909061</v>
+      </c>
+      <c r="F74">
+        <v>-0.01133281387053753</v>
+      </c>
+      <c r="G74">
+        <v>0.03194417895153431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09485879147684126</v>
+        <v>0.1037481855963514</v>
       </c>
       <c r="C75">
-        <v>-0.06423670427922444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03347835807705618</v>
+      </c>
+      <c r="D75">
+        <v>-0.01570699532958613</v>
+      </c>
+      <c r="E75">
+        <v>0.002047716495336648</v>
+      </c>
+      <c r="F75">
+        <v>0.05245801874081091</v>
+      </c>
+      <c r="G75">
+        <v>0.01617169228290246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1164089610309107</v>
+        <v>0.1338188166250043</v>
       </c>
       <c r="C76">
-        <v>-0.09961751757952501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06797138031688583</v>
+      </c>
+      <c r="D76">
+        <v>-0.05531630063508965</v>
+      </c>
+      <c r="E76">
+        <v>-0.007724006673701907</v>
+      </c>
+      <c r="F76">
+        <v>0.06402135431148941</v>
+      </c>
+      <c r="G76">
+        <v>0.00726586444133012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.1147609589614807</v>
+        <v>0.1137569087815855</v>
       </c>
       <c r="C77">
-        <v>-0.06193444808192076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02436265777063647</v>
+      </c>
+      <c r="D77">
+        <v>-0.01976920081315623</v>
+      </c>
+      <c r="E77">
+        <v>0.01377027143256274</v>
+      </c>
+      <c r="F77">
+        <v>0.2474223603957229</v>
+      </c>
+      <c r="G77">
+        <v>-0.8825402337129614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08677667721601151</v>
+        <v>0.1090894622529405</v>
       </c>
       <c r="C78">
-        <v>-0.04912689624919871</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03065817318106209</v>
+      </c>
+      <c r="D78">
+        <v>-0.07120802146643297</v>
+      </c>
+      <c r="E78">
+        <v>-0.05601360800828618</v>
+      </c>
+      <c r="F78">
+        <v>0.008518265299518138</v>
+      </c>
+      <c r="G78">
+        <v>-0.03267503418960652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1351251898019123</v>
+        <v>0.1510208744538801</v>
       </c>
       <c r="C79">
-        <v>-0.101440170302994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06126990277516878</v>
+      </c>
+      <c r="D79">
+        <v>-0.0286047378407016</v>
+      </c>
+      <c r="E79">
+        <v>0.02633864094631247</v>
+      </c>
+      <c r="F79">
+        <v>0.02830771465513315</v>
+      </c>
+      <c r="G79">
+        <v>0.02321395075704804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04017095873725076</v>
+        <v>0.03848954332486756</v>
       </c>
       <c r="C80">
-        <v>-0.01809078047997988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005459750127461143</v>
+      </c>
+      <c r="D80">
+        <v>-0.0288402417036958</v>
+      </c>
+      <c r="E80">
+        <v>0.005012631995609178</v>
+      </c>
+      <c r="F80">
+        <v>-0.02682197516779986</v>
+      </c>
+      <c r="G80">
+        <v>0.03849924921149593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1096517457471206</v>
+        <v>0.1202218088149695</v>
       </c>
       <c r="C81">
-        <v>-0.07677057230611786</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04409064263312345</v>
+      </c>
+      <c r="D81">
+        <v>-0.0335704092800895</v>
+      </c>
+      <c r="E81">
+        <v>0.01014352802437912</v>
+      </c>
+      <c r="F81">
+        <v>0.02880951404137122</v>
+      </c>
+      <c r="G81">
+        <v>0.05944655618200203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.117344254194028</v>
+        <v>0.1277476398571362</v>
       </c>
       <c r="C82">
-        <v>-0.08992611682439694</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05666171518280624</v>
+      </c>
+      <c r="D82">
+        <v>-0.03495991261373869</v>
+      </c>
+      <c r="E82">
+        <v>0.02730521557797715</v>
+      </c>
+      <c r="F82">
+        <v>0.05050300008473255</v>
+      </c>
+      <c r="G82">
+        <v>0.04822691894054728</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07366366611541718</v>
+        <v>0.07509080236040956</v>
       </c>
       <c r="C83">
-        <v>-0.02243890061548699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.002471590247675025</v>
+      </c>
+      <c r="D83">
+        <v>-0.04259345124545599</v>
+      </c>
+      <c r="E83">
+        <v>-0.01308474556544499</v>
+      </c>
+      <c r="F83">
+        <v>0.007800833533881497</v>
+      </c>
+      <c r="G83">
+        <v>0.07884291148744581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02267400059252504</v>
+        <v>0.03248764099838165</v>
       </c>
       <c r="C84">
-        <v>-0.02240311936569514</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01874491280595663</v>
+      </c>
+      <c r="D84">
+        <v>-0.0213238108530925</v>
+      </c>
+      <c r="E84">
+        <v>-0.01816906822209131</v>
+      </c>
+      <c r="F84">
+        <v>-0.05090812774165853</v>
+      </c>
+      <c r="G84">
+        <v>0.06138163235996637</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1153014449884023</v>
+        <v>0.1194173989149619</v>
       </c>
       <c r="C85">
-        <v>-0.07578032914975574</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03898118589757777</v>
+      </c>
+      <c r="D85">
+        <v>-0.03372215672001197</v>
+      </c>
+      <c r="E85">
+        <v>-0.001631053224748041</v>
+      </c>
+      <c r="F85">
+        <v>0.07533063770586164</v>
+      </c>
+      <c r="G85">
+        <v>0.02264209429904361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04668963269622326</v>
+        <v>0.05030656283205728</v>
       </c>
       <c r="C86">
-        <v>-0.02213702158727944</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.008818501206545147</v>
+      </c>
+      <c r="D86">
+        <v>-0.01781924558648268</v>
+      </c>
+      <c r="E86">
+        <v>-0.04746889900882382</v>
+      </c>
+      <c r="F86">
+        <v>0.01979277270771855</v>
+      </c>
+      <c r="G86">
+        <v>0.02500269198838559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.1181641045670801</v>
+        <v>0.1238255173235028</v>
       </c>
       <c r="C87">
-        <v>-0.08388221068542633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04337500189178455</v>
+      </c>
+      <c r="D87">
+        <v>-0.07041730345192898</v>
+      </c>
+      <c r="E87">
+        <v>-0.01810835690289285</v>
+      </c>
+      <c r="F87">
+        <v>0.03193327248059509</v>
+      </c>
+      <c r="G87">
+        <v>-0.1033338683181767</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05339348630668993</v>
+        <v>0.05934289109060139</v>
       </c>
       <c r="C88">
-        <v>-0.04023256885544978</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02441166208658421</v>
+      </c>
+      <c r="D88">
+        <v>-0.02570213437453279</v>
+      </c>
+      <c r="E88">
+        <v>-0.01976416108500246</v>
+      </c>
+      <c r="F88">
+        <v>0.01338347989962718</v>
+      </c>
+      <c r="G88">
+        <v>-0.009868474075613221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07683149637746244</v>
+        <v>0.1056779349304387</v>
       </c>
       <c r="C89">
-        <v>-0.07029159491048975</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07005914955696747</v>
+      </c>
+      <c r="D89">
+        <v>0.3307376082529254</v>
+      </c>
+      <c r="E89">
+        <v>-0.07855119901580244</v>
+      </c>
+      <c r="F89">
+        <v>0.06602659049940046</v>
+      </c>
+      <c r="G89">
+        <v>0.02172529651745756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06777278617371209</v>
+        <v>0.08804856846936179</v>
       </c>
       <c r="C90">
-        <v>-0.05756787012840073</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05547699551674371</v>
+      </c>
+      <c r="D90">
+        <v>0.3069672087607661</v>
+      </c>
+      <c r="E90">
+        <v>-0.0649640193029451</v>
+      </c>
+      <c r="F90">
+        <v>-0.01246602499564313</v>
+      </c>
+      <c r="G90">
+        <v>0.004908536726813587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07741004019093509</v>
+        <v>0.08806343855885972</v>
       </c>
       <c r="C91">
-        <v>-0.06680821973683038</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.0438710519520594</v>
+      </c>
+      <c r="D91">
+        <v>-0.02664905671024208</v>
+      </c>
+      <c r="E91">
+        <v>-0.01281872681531874</v>
+      </c>
+      <c r="F91">
+        <v>0.009559905711785296</v>
+      </c>
+      <c r="G91">
+        <v>0.04065669666717405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.08062949312142556</v>
+        <v>0.101868299116054</v>
       </c>
       <c r="C92">
-        <v>-0.06848773720503631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06287443638135706</v>
+      </c>
+      <c r="D92">
+        <v>0.3336862577227384</v>
+      </c>
+      <c r="E92">
+        <v>-0.04758521319141454</v>
+      </c>
+      <c r="F92">
+        <v>0.02915160054864206</v>
+      </c>
+      <c r="G92">
+        <v>0.005672317305297159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0605143789692997</v>
+        <v>0.08506355136807088</v>
       </c>
       <c r="C93">
-        <v>-0.05686551004396481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.0599940942376368</v>
+      </c>
+      <c r="D93">
+        <v>0.3032682909243155</v>
+      </c>
+      <c r="E93">
+        <v>-0.03744513474642985</v>
+      </c>
+      <c r="F93">
+        <v>0.04276572735231224</v>
+      </c>
+      <c r="G93">
+        <v>-0.0003344397435883441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1242585401029666</v>
+        <v>0.127755432928182</v>
       </c>
       <c r="C94">
-        <v>-0.07729658958764826</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03536005633217851</v>
+      </c>
+      <c r="D94">
+        <v>-0.05491446304792864</v>
+      </c>
+      <c r="E94">
+        <v>0.02383104832487476</v>
+      </c>
+      <c r="F94">
+        <v>0.03085852935514066</v>
+      </c>
+      <c r="G94">
+        <v>0.04391480833388132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1119414446974678</v>
+        <v>0.1188897519489472</v>
       </c>
       <c r="C95">
-        <v>-0.05744903510843827</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02188817949472173</v>
+      </c>
+      <c r="D95">
+        <v>-0.05808544990321464</v>
+      </c>
+      <c r="E95">
+        <v>0.01604215335923622</v>
+      </c>
+      <c r="F95">
+        <v>0.02089967192138392</v>
+      </c>
+      <c r="G95">
+        <v>0.01254811430941637</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1984363538569495</v>
+        <v>0.2206066409976526</v>
       </c>
       <c r="C97">
-        <v>-0.07436954561766601</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03199057770972299</v>
+      </c>
+      <c r="D97">
+        <v>0.02439149403252217</v>
+      </c>
+      <c r="E97">
+        <v>0.114782830317848</v>
+      </c>
+      <c r="F97">
+        <v>-0.8962676396852549</v>
+      </c>
+      <c r="G97">
+        <v>-0.1978174173056401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2362568563756947</v>
+        <v>0.2667835597764057</v>
       </c>
       <c r="C98">
-        <v>-0.1200246668419997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0573224618595097</v>
+      </c>
+      <c r="D98">
+        <v>-0.050798417646627</v>
+      </c>
+      <c r="E98">
+        <v>0.1661567644999069</v>
+      </c>
+      <c r="F98">
+        <v>0.02928517108506204</v>
+      </c>
+      <c r="G98">
+        <v>0.268960249288623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5526348005231627</v>
+        <v>0.3373403211592887</v>
       </c>
       <c r="C99">
-        <v>0.8236631934597671</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9302860826470229</v>
+      </c>
+      <c r="D99">
+        <v>0.06624840142651051</v>
+      </c>
+      <c r="E99">
+        <v>-0.04027360941655614</v>
+      </c>
+      <c r="F99">
+        <v>0.04129844042055074</v>
+      </c>
+      <c r="G99">
+        <v>0.01133150591995913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03668216243140709</v>
+        <v>0.04468304897993695</v>
       </c>
       <c r="C101">
-        <v>-0.03121044751200509</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02354745127752445</v>
+      </c>
+      <c r="D101">
+        <v>-0.01155293540178571</v>
+      </c>
+      <c r="E101">
+        <v>-0.03800065919725527</v>
+      </c>
+      <c r="F101">
+        <v>0.0166145804115432</v>
+      </c>
+      <c r="G101">
+        <v>0.01650574847232109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
